--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H2">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I2">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J2">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>2855.028177610508</v>
+        <v>2987.326123071382</v>
       </c>
       <c r="R2">
-        <v>25695.25359849457</v>
+        <v>26885.93510764244</v>
       </c>
       <c r="S2">
-        <v>0.04558893572569582</v>
+        <v>0.03752430853327759</v>
       </c>
       <c r="T2">
-        <v>0.04558893572569582</v>
+        <v>0.03752430853327759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H3">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I3">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J3">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>11621.14782951844</v>
+        <v>18529.38810071093</v>
       </c>
       <c r="R3">
-        <v>104590.3304656659</v>
+        <v>166764.4929063983</v>
       </c>
       <c r="S3">
-        <v>0.1855658608252805</v>
+        <v>0.2327507769084993</v>
       </c>
       <c r="T3">
-        <v>0.1855658608252805</v>
+        <v>0.2327507769084992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H4">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I4">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J4">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>3816.017603641772</v>
+        <v>7419.730793096887</v>
       </c>
       <c r="R4">
-        <v>34344.15843277594</v>
+        <v>66777.57713787199</v>
       </c>
       <c r="S4">
-        <v>0.06093396297270514</v>
+        <v>0.09320049303079563</v>
       </c>
       <c r="T4">
-        <v>0.06093396297270515</v>
+        <v>0.09320049303079561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H5">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I5">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J5">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>13525.50442363767</v>
+        <v>17630.31769653303</v>
       </c>
       <c r="R5">
-        <v>121729.539812739</v>
+        <v>158672.8592687973</v>
       </c>
       <c r="S5">
-        <v>0.215974524056327</v>
+        <v>0.2214574015455096</v>
       </c>
       <c r="T5">
-        <v>0.2159745240563271</v>
+        <v>0.2214574015455096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>485.815337</v>
       </c>
       <c r="I6">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J6">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>2176.658209647551</v>
+        <v>1428.401918933828</v>
       </c>
       <c r="R6">
-        <v>19589.92388682796</v>
+        <v>12855.61727040445</v>
       </c>
       <c r="S6">
-        <v>0.03475676071942707</v>
+        <v>0.01794239801996937</v>
       </c>
       <c r="T6">
-        <v>0.03475676071942707</v>
+        <v>0.01794239801996936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>485.815337</v>
       </c>
       <c r="I7">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J7">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>8859.900937937431</v>
@@ -883,10 +883,10 @@
         <v>79739.10844143688</v>
       </c>
       <c r="S7">
-        <v>0.1414744196093062</v>
+        <v>0.1112907137261677</v>
       </c>
       <c r="T7">
-        <v>0.1414744196093062</v>
+        <v>0.1112907137261677</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>485.815337</v>
       </c>
       <c r="I8">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J8">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>2909.311407244399</v>
+        <v>3547.773917611459</v>
       </c>
       <c r="R8">
-        <v>26183.80266519959</v>
+        <v>31929.96525850313</v>
       </c>
       <c r="S8">
-        <v>0.04645572740438035</v>
+        <v>0.04456418804181102</v>
       </c>
       <c r="T8">
-        <v>0.04645572740438035</v>
+        <v>0.044564188041811</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>485.815337</v>
       </c>
       <c r="I9">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J9">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>10311.77221794536</v>
+        <v>8430.006832748826</v>
       </c>
       <c r="R9">
-        <v>92805.94996150822</v>
+        <v>75870.06149473944</v>
       </c>
       <c r="S9">
-        <v>0.1646578217856243</v>
+        <v>0.1058907411837829</v>
       </c>
       <c r="T9">
-        <v>0.1646578217856243</v>
+        <v>0.1058907411837829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H10">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I10">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J10">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>583.197257197987</v>
+        <v>686.2054494307855</v>
       </c>
       <c r="R10">
-        <v>5248.775314781884</v>
+        <v>6175.84904487707</v>
       </c>
       <c r="S10">
-        <v>0.009312462301529082</v>
+        <v>0.008619542674899955</v>
       </c>
       <c r="T10">
-        <v>0.009312462301529082</v>
+        <v>0.008619542674899953</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H11">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I11">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J11">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>2373.854518430638</v>
+        <v>4256.303652663491</v>
       </c>
       <c r="R11">
-        <v>21364.69066587575</v>
+        <v>38306.73287397143</v>
       </c>
       <c r="S11">
-        <v>0.03790558072651391</v>
+        <v>0.05346414984302162</v>
       </c>
       <c r="T11">
-        <v>0.03790558072651391</v>
+        <v>0.05346414984302162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H12">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I12">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J12">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>779.4987864973448</v>
+        <v>1704.353489969072</v>
       </c>
       <c r="R12">
-        <v>7015.489078476104</v>
+        <v>15339.18140972165</v>
       </c>
       <c r="S12">
-        <v>0.01244699451815125</v>
+        <v>0.02140867236202979</v>
       </c>
       <c r="T12">
-        <v>0.01244699451815125</v>
+        <v>0.02140867236202979</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H13">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I13">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J13">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>2762.857874378863</v>
+        <v>4049.782173135671</v>
       </c>
       <c r="R13">
-        <v>24865.72086940978</v>
+        <v>36448.03955822104</v>
       </c>
       <c r="S13">
-        <v>0.04411716530227321</v>
+        <v>0.05086999861972523</v>
       </c>
       <c r="T13">
-        <v>0.04411716530227321</v>
+        <v>0.05086999861972523</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H14">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I14">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J14">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>4.550528178681</v>
+        <v>5.191982971404667</v>
       </c>
       <c r="R14">
-        <v>40.954753608129</v>
+        <v>46.727846742642</v>
       </c>
       <c r="S14">
-        <v>7.26625881603321E-05</v>
+        <v>6.52173759717284E-05</v>
       </c>
       <c r="T14">
-        <v>7.26625881603321E-05</v>
+        <v>6.521737597172838E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H15">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I15">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J15">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>18.522535462715</v>
+        <v>32.204139597095</v>
       </c>
       <c r="R15">
-        <v>166.702819164435</v>
+        <v>289.837256373855</v>
       </c>
       <c r="S15">
-        <v>0.0002957668457736092</v>
+        <v>0.0004045216426011413</v>
       </c>
       <c r="T15">
-        <v>0.0002957668457736092</v>
+        <v>0.0004045216426011413</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H16">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I16">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J16">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>6.082215150061332</v>
+        <v>12.89551737677667</v>
       </c>
       <c r="R16">
-        <v>54.73993635055199</v>
+        <v>116.05965639099</v>
       </c>
       <c r="S16">
-        <v>9.712048298523908E-05</v>
+        <v>0.0001619827741622328</v>
       </c>
       <c r="T16">
-        <v>9.712048298523909E-05</v>
+        <v>0.0001619827741622328</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H17">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I17">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J17">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>21.55782191339</v>
+        <v>30.641552174003</v>
       </c>
       <c r="R17">
-        <v>194.02039722051</v>
+        <v>275.7739695660269</v>
       </c>
       <c r="S17">
-        <v>0.0003442341358669456</v>
+        <v>0.000384893717775164</v>
       </c>
       <c r="T17">
-        <v>0.0003442341358669457</v>
+        <v>0.0003848937177751639</v>
       </c>
     </row>
   </sheetData>
